--- a/data/transfers/transfers_info.xlsx
+++ b/data/transfers/transfers_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\transfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AACCD0C-995E-4646-BC52-F19E5750971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC7064A-A1F2-489A-BF6A-63323F73C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,6 +499,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -510,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -874,17 +874,18 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="15.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="74.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" style="1" customWidth="1"/>
@@ -1081,22 +1082,22 @@
         <v>22</v>
       </c>
       <c r="I4" s="5">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J4" s="5">
         <v>224</v>
       </c>
       <c r="K4" s="5">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O4" s="5">
         <v>174</v>
@@ -1117,22 +1118,22 @@
         <v>5</v>
       </c>
       <c r="U4" s="5">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="V4" s="5">
         <v>50</v>
       </c>
       <c r="W4" s="5">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y4" s="6">
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1161,22 +1162,22 @@
         <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J5" s="5">
         <v>163</v>
       </c>
       <c r="K5" s="5">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="L5" s="5">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M5" s="5">
         <v>5</v>
       </c>
       <c r="N5" s="5">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="O5" s="5">
         <v>75</v>
@@ -1188,31 +1189,31 @@
         <v>1</v>
       </c>
       <c r="R5" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S5" s="5">
         <v>1</v>
       </c>
       <c r="T5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="5">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="V5" s="5">
         <v>89</v>
       </c>
       <c r="W5" s="5">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="X5" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="5">
         <v>4</v>
       </c>
       <c r="Z5" s="5">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,7 +1229,7 @@
       <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1240,25 +1241,25 @@
       <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5">
-        <v>137</v>
+      <c r="I6" s="8">
+        <v>84</v>
       </c>
       <c r="J6" s="5">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="K6" s="5">
-        <v>53</v>
-      </c>
-      <c r="L6" s="5">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="L6" s="8">
+        <v>115</v>
       </c>
       <c r="M6" s="5">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="N6" s="5">
-        <v>38</v>
-      </c>
-      <c r="O6" s="7">
+        <v>43</v>
+      </c>
+      <c r="O6" s="8">
         <v>9</v>
       </c>
       <c r="P6" s="5">
@@ -1267,7 +1268,7 @@
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="8">
         <v>42</v>
       </c>
       <c r="S6" s="5">
@@ -1277,22 +1278,22 @@
         <v>15</v>
       </c>
       <c r="U6" s="5">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="V6" s="5">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="W6" s="5">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="X6" s="5">
-        <v>23</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>45</v>
       </c>
       <c r="Z6" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1314,7 +1315,7 @@
       <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1359,7 +1360,7 @@
       <c r="U7" s="5">
         <v>0</v>
       </c>
-      <c r="V7" s="9"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="5">
         <v>0</v>
       </c>
@@ -1401,7 +1402,7 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="5">
         <v>1</v>
       </c>
@@ -1417,7 +1418,7 @@
       <c r="O8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
@@ -1433,7 +1434,7 @@
       <c r="U8" s="5">
         <v>1</v>
       </c>
-      <c r="V8" s="10"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="5">
         <v>1</v>
       </c>
@@ -1508,14 +1509,14 @@
       <c r="T9" s="5">
         <v>0</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="8">
         <v>13</v>
       </c>
-      <c r="V9" s="10"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="5">
         <v>13</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="8">
         <v>23</v>
       </c>
       <c r="Y9" s="6">
@@ -1551,22 +1552,22 @@
         <v>22</v>
       </c>
       <c r="I10" s="5">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="J10" s="5">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K10" s="5">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L10" s="5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M10" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N10" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="5">
         <v>314</v>
@@ -1587,22 +1588,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="V10" s="5">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="W10" s="5">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="X10" s="5">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1631,10 +1632,10 @@
         <v>22</v>
       </c>
       <c r="I11" s="5">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="J11" s="5">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="K11" s="5">
         <v>72</v>
@@ -1649,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="O11" s="5">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="P11" s="5">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
@@ -1667,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="V11" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W11" s="5">
         <v>72</v>
@@ -1711,58 +1712,58 @@
         <v>22</v>
       </c>
       <c r="I12" s="5">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J12" s="5">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K12" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M12" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N12" s="5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O12" s="5">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="P12" s="5">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
       </c>
       <c r="T12" s="5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U12" s="5">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V12" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W12" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X12" s="5">
         <v>34</v>
       </c>
       <c r="Y12" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z12" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1791,58 +1792,58 @@
         <v>22</v>
       </c>
       <c r="I13" s="5">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="J13" s="5">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K13" s="5">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="L13" s="5">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="5">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N13" s="5">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O13" s="5">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P13" s="5">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="5">
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S13" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T13" s="5">
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="V13" s="5">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="W13" s="5">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="X13" s="5">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="5">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Z13" s="5">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,56 +1872,56 @@
         <v>22</v>
       </c>
       <c r="I14" s="5">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="J14" s="5">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K14" s="5">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="L14" s="5">
         <v>55</v>
       </c>
       <c r="M14" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N14" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O14" s="5">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P14" s="5">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S14" s="5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T14" s="5">
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>47</v>
-      </c>
-      <c r="V14" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="V14" s="11"/>
       <c r="W14" s="5">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="X14" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Y14" s="6">
         <v>0</v>
       </c>
       <c r="Z14" s="5">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1942,29 +1943,29 @@
       <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="5">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J15" s="5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" s="5">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L15" s="5">
-        <v>23</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2</v>
       </c>
       <c r="N15" s="5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O15" s="5">
         <v>54</v>
@@ -1985,22 +1986,22 @@
         <v>4</v>
       </c>
       <c r="U15" s="5">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="V15" s="5">
+        <v>31</v>
+      </c>
+      <c r="W15" s="5">
+        <v>51</v>
+      </c>
+      <c r="X15" s="5">
         <v>33</v>
       </c>
-      <c r="W15" s="5">
-        <v>63</v>
-      </c>
-      <c r="X15" s="5">
-        <v>19</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
+      <c r="Y15" s="5">
+        <v>2</v>
       </c>
       <c r="Z15" s="5">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2029,22 +2030,22 @@
         <v>22</v>
       </c>
       <c r="I16" s="5">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="J16" s="5">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K16" s="5">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="L16" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="O16" s="5">
         <v>246</v>
@@ -2065,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="V16" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W16" s="5">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="X16" s="5">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2109,19 +2110,19 @@
         <v>22</v>
       </c>
       <c r="I17" s="5">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J17" s="5">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K17" s="5">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L17" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="5">
         <v>37</v>
@@ -2145,19 +2146,19 @@
         <v>4</v>
       </c>
       <c r="U17" s="5">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="V17" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W17" s="5">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="X17" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="5">
         <v>33</v>
@@ -2189,56 +2190,58 @@
         <v>22</v>
       </c>
       <c r="I18" s="5">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J18" s="5">
         <v>408</v>
       </c>
       <c r="K18" s="5">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L18" s="5">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M18" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N18" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O18" s="5">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="P18" s="5">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S18" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="T18" s="5">
         <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>86</v>
-      </c>
-      <c r="V18" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="V18" s="5">
+        <v>20</v>
+      </c>
       <c r="W18" s="5">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X18" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y18" s="6">
         <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,58 +2270,58 @@
         <v>22</v>
       </c>
       <c r="I19" s="5">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="J19" s="5">
-        <v>782</v>
+        <v>704</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L19" s="5">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M19" s="5">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="N19" s="5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O19" s="5">
-        <v>543</v>
+        <v>367</v>
       </c>
       <c r="P19" s="5">
-        <v>543</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S19" s="5">
         <v>118</v>
       </c>
       <c r="T19" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U19" s="5">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="V19" s="5">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="W19" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X19" s="5">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="Y19" s="5">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="Z19" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2334,7 +2337,7 @@
       <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2346,57 +2349,57 @@
       <c r="H20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="7">
-        <v>97</v>
+      <c r="I20" s="8">
+        <v>96</v>
       </c>
       <c r="J20" s="5">
         <v>96</v>
       </c>
       <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="7">
-        <v>383</v>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>275</v>
       </c>
       <c r="M20" s="5">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="N20" s="5">
-        <v>244</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
       <c r="Q20" s="5">
         <v>0</v>
       </c>
-      <c r="R20" s="7">
-        <v>124</v>
+      <c r="R20" s="8">
+        <v>106</v>
       </c>
       <c r="S20" s="6">
         <v>0</v>
       </c>
       <c r="T20" s="5">
-        <v>124</v>
-      </c>
-      <c r="U20" s="7">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="U20" s="8">
+        <v>96</v>
       </c>
       <c r="V20" s="5">
         <v>96</v>
       </c>
       <c r="W20" s="5">
-        <v>1</v>
-      </c>
-      <c r="X20" s="7">
-        <v>259</v>
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>169</v>
       </c>
       <c r="Y20" s="5">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Z20" s="5">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2412,7 +2415,7 @@
       <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -2424,57 +2427,57 @@
       <c r="H21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="7">
-        <v>119</v>
+      <c r="I21" s="8">
+        <v>97</v>
       </c>
       <c r="J21" s="5">
         <v>49</v>
       </c>
       <c r="K21" s="5">
-        <v>70</v>
-      </c>
-      <c r="L21" s="7">
-        <v>130</v>
+        <v>48</v>
+      </c>
+      <c r="L21" s="8">
+        <v>116</v>
       </c>
       <c r="M21" s="5">
         <v>17</v>
       </c>
       <c r="N21" s="5">
-        <v>113</v>
-      </c>
-      <c r="O21" s="7">
+        <v>99</v>
+      </c>
+      <c r="O21" s="8">
         <v>20</v>
       </c>
-      <c r="P21" s="10"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="5">
         <v>20</v>
       </c>
-      <c r="R21" s="7">
-        <v>24</v>
+      <c r="R21" s="8">
+        <v>22</v>
       </c>
       <c r="S21" s="5">
         <v>17</v>
       </c>
       <c r="T21" s="5">
-        <v>7</v>
-      </c>
-      <c r="U21" s="7">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="U21" s="8">
+        <v>77</v>
       </c>
       <c r="V21" s="5">
         <v>49</v>
       </c>
       <c r="W21" s="5">
-        <v>50</v>
-      </c>
-      <c r="X21" s="7">
-        <v>106</v>
+        <v>28</v>
+      </c>
+      <c r="X21" s="8">
+        <v>94</v>
       </c>
       <c r="Y21" s="6">
         <v>0</v>
       </c>
       <c r="Z21" s="5">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2503,58 +2506,58 @@
         <v>22</v>
       </c>
       <c r="I22" s="5">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="J22" s="5">
-        <v>580</v>
+        <v>470</v>
       </c>
       <c r="K22" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L22" s="5">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="M22" s="5">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N22" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O22" s="5">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="P22" s="5">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="Q22" s="5">
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S22" s="5">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T22" s="5">
         <v>2</v>
       </c>
       <c r="U22" s="5">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="V22" s="5">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="W22" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X22" s="5">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="Y22" s="5">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Z22" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2583,28 +2586,28 @@
         <v>22</v>
       </c>
       <c r="I23" s="5">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="J23" s="5">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="K23" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L23" s="5">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M23" s="5">
         <v>12</v>
       </c>
       <c r="N23" s="5">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O23" s="5">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="P23" s="5">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
@@ -2619,22 +2622,22 @@
         <v>0</v>
       </c>
       <c r="U23" s="5">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V23" s="5">
         <v>55</v>
       </c>
       <c r="W23" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X23" s="5">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Y23" s="5">
         <v>2</v>
       </c>
       <c r="Z23" s="5">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2663,58 +2666,58 @@
         <v>22</v>
       </c>
       <c r="I24" s="5">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="J24" s="5">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K24" s="5">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="L24" s="5">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M24" s="5">
         <v>6</v>
       </c>
       <c r="N24" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="O24" s="5">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P24" s="5">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="5">
         <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S24" s="6">
         <v>0</v>
       </c>
       <c r="T24" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U24" s="5">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="V24" s="5">
         <v>39</v>
       </c>
       <c r="W24" s="5">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="X24" s="5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Y24" s="5">
         <v>6</v>
       </c>
       <c r="Z24" s="5">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2743,37 +2746,37 @@
         <v>22</v>
       </c>
       <c r="I25" s="5">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J25" s="5">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K25" s="5">
         <v>53</v>
       </c>
       <c r="L25" s="5">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M25" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N25" s="5">
         <v>15</v>
       </c>
       <c r="O25" s="5">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P25" s="5">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S25" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T25" s="5">
         <v>0</v>
@@ -2832,13 +2835,13 @@
         <v>166</v>
       </c>
       <c r="L26" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M26" s="6">
         <v>0</v>
       </c>
       <c r="N26" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O26" s="5">
         <v>70</v>
@@ -2868,13 +2871,13 @@
         <v>166</v>
       </c>
       <c r="X26" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y26" s="6">
         <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2903,58 +2906,58 @@
         <v>22</v>
       </c>
       <c r="I27" s="5">
-        <v>465</v>
+        <v>264</v>
       </c>
       <c r="J27" s="5">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="K27" s="5">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="L27" s="5">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M27" s="5">
+        <v>43</v>
+      </c>
+      <c r="N27" s="5">
+        <v>115</v>
+      </c>
+      <c r="O27" s="8">
+        <v>52</v>
+      </c>
+      <c r="P27" s="5">
         <v>48</v>
       </c>
-      <c r="N27" s="5">
-        <v>114</v>
-      </c>
-      <c r="O27" s="5">
-        <v>224</v>
-      </c>
-      <c r="P27" s="5">
-        <v>224</v>
-      </c>
       <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="R27" s="8">
+        <v>60</v>
       </c>
       <c r="S27" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T27" s="5">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="U27" s="5">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="V27" s="5">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="W27" s="5">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="X27" s="5">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z27" s="5">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,58 +2986,58 @@
         <v>22</v>
       </c>
       <c r="I28" s="5">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="J28" s="5">
-        <v>394</v>
+        <v>329</v>
       </c>
       <c r="K28" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L28" s="5">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="M28" s="5">
         <v>16</v>
       </c>
       <c r="N28" s="5">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="O28" s="5">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="P28" s="5">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="5">
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="S28" s="6">
         <v>0</v>
       </c>
       <c r="T28" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="U28" s="5">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="V28" s="5">
         <v>123</v>
       </c>
       <c r="W28" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="X28" s="5">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y28" s="5">
         <v>16</v>
       </c>
       <c r="Z28" s="5">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,22 +3066,22 @@
         <v>22</v>
       </c>
       <c r="I29" s="5">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J29" s="5">
         <v>210</v>
       </c>
       <c r="K29" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L29" s="5">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M29" s="5">
         <v>34</v>
       </c>
       <c r="N29" s="5">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O29" s="5">
         <v>89</v>
@@ -3090,31 +3093,31 @@
         <v>8</v>
       </c>
       <c r="R29" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S29" s="5">
         <v>5</v>
       </c>
       <c r="T29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="5">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="V29" s="5">
         <v>129</v>
       </c>
       <c r="W29" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X29" s="5">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Y29" s="5">
         <v>29</v>
       </c>
       <c r="Z29" s="5">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3143,58 +3146,58 @@
         <v>32</v>
       </c>
       <c r="I30" s="5">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="J30" s="5">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="K30" s="5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="L30" s="5">
-        <v>18</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="M30" s="5">
+        <v>6</v>
       </c>
       <c r="N30" s="5">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="O30" s="5">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="P30" s="5">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="Q30" s="5">
         <v>0</v>
       </c>
       <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="S30" s="5">
+        <v>4</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U30" s="5">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="V30" s="5">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W30" s="5">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="X30" s="5">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>2</v>
       </c>
       <c r="Z30" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3225,7 +3228,7 @@
       <c r="I31" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="10"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="5">
         <v>1</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="O31" s="5">
         <v>0</v>
       </c>
-      <c r="P31" s="9"/>
+      <c r="P31" s="10"/>
       <c r="Q31" s="5">
         <v>0</v>
       </c>
@@ -3257,7 +3260,7 @@
       <c r="U31" s="5">
         <v>1</v>
       </c>
-      <c r="V31" s="10"/>
+      <c r="V31" s="11"/>
       <c r="W31" s="5">
         <v>1</v>
       </c>
@@ -3297,58 +3300,58 @@
         <v>22</v>
       </c>
       <c r="I32" s="5">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="J32" s="5">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="K32" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L32" s="5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M32" s="5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N32" s="5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O32" s="5">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="P32" s="5">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="Q32" s="5">
         <v>0</v>
       </c>
       <c r="R32" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S32" s="6">
         <v>0</v>
       </c>
       <c r="T32" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U32" s="5">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="V32" s="5">
         <v>122</v>
       </c>
       <c r="W32" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X32" s="5">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y32" s="5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z32" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,7 +3400,7 @@
       <c r="O33" s="5">
         <v>0</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="10"/>
       <c r="Q33" s="5">
         <v>0</v>
       </c>
@@ -3455,58 +3458,58 @@
         <v>22</v>
       </c>
       <c r="I34" s="5">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J34" s="5">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K34" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="5">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M34" s="5">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="N34" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O34" s="5">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="P34" s="5">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="5">
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="S34" s="5">
+        <v>30</v>
       </c>
       <c r="T34" s="5">
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V34" s="5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W34" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X34" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y34" s="5">
         <v>1</v>
       </c>
       <c r="Z34" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3535,28 +3538,28 @@
         <v>22</v>
       </c>
       <c r="I35" s="5">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="J35" s="5">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K35" s="5">
+        <v>51</v>
+      </c>
+      <c r="L35" s="5">
+        <v>46</v>
+      </c>
+      <c r="M35" s="5">
+        <v>2</v>
+      </c>
+      <c r="N35" s="5">
+        <v>44</v>
+      </c>
+      <c r="O35" s="5">
         <v>49</v>
       </c>
-      <c r="L35" s="5">
-        <v>48</v>
-      </c>
-      <c r="M35" s="5">
-        <v>3</v>
-      </c>
-      <c r="N35" s="5">
-        <v>45</v>
-      </c>
-      <c r="O35" s="5">
-        <v>64</v>
-      </c>
       <c r="P35" s="5">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="5">
         <v>0</v>
@@ -3571,22 +3574,22 @@
         <v>0</v>
       </c>
       <c r="U35" s="5">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V35" s="5">
         <v>68</v>
       </c>
       <c r="W35" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="X35" s="5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y35" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3615,58 +3618,58 @@
         <v>32</v>
       </c>
       <c r="I36" s="5">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="J36" s="5">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K36" s="5">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L36" s="5">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M36" s="5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N36" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O36" s="5">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="P36" s="5">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="Q36" s="5">
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S36" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T36" s="5">
         <v>1</v>
       </c>
       <c r="U36" s="5">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="V36" s="5">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="W36" s="5">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="X36" s="5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y36" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z36" s="5">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3695,55 +3698,55 @@
         <v>22</v>
       </c>
       <c r="I37" s="5">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="J37" s="5">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="K37" s="5">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L37" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M37" s="5">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N37" s="5">
         <v>11</v>
       </c>
       <c r="O37" s="5">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="P37" s="5">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Q37" s="5">
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="S37" s="5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="T37" s="5">
         <v>1</v>
       </c>
       <c r="U37" s="5">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="V37" s="5">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="W37" s="5">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X37" s="5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Y37" s="5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Z37" s="5">
         <v>10</v>
@@ -3777,7 +3780,7 @@
       <c r="I38" s="5">
         <v>1</v>
       </c>
-      <c r="J38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="5">
         <v>1</v>
       </c>
@@ -3793,7 +3796,7 @@
       <c r="O38" s="5">
         <v>0</v>
       </c>
-      <c r="P38" s="9"/>
+      <c r="P38" s="10"/>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
@@ -3809,7 +3812,7 @@
       <c r="U38" s="5">
         <v>1</v>
       </c>
-      <c r="V38" s="10"/>
+      <c r="V38" s="11"/>
       <c r="W38" s="5">
         <v>1</v>
       </c>
@@ -3849,58 +3852,58 @@
         <v>22</v>
       </c>
       <c r="I39" s="5">
-        <v>466</v>
+        <v>404</v>
       </c>
       <c r="J39" s="5">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="K39" s="5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L39" s="5">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="M39" s="5">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N39" s="5">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="O39" s="5">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="P39" s="5">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="Q39" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R39" s="5">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="S39" s="5">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="T39" s="5">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="U39" s="5">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="V39" s="5">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="W39" s="5">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="X39" s="5">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="Y39" s="5">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z39" s="5">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,22 +3932,22 @@
         <v>22</v>
       </c>
       <c r="I40" s="5">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J40" s="5">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K40" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L40" s="5">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M40" s="5">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N40" s="5">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O40" s="5">
         <v>240</v>
@@ -3956,31 +3959,31 @@
         <v>0</v>
       </c>
       <c r="R40" s="5">
+        <v>33</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <v>33</v>
+      </c>
+      <c r="U40" s="5">
+        <v>148</v>
+      </c>
+      <c r="V40" s="5">
+        <v>75</v>
+      </c>
+      <c r="W40" s="5">
+        <v>73</v>
+      </c>
+      <c r="X40" s="5">
+        <v>60</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z40" s="5">
         <v>37</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0</v>
-      </c>
-      <c r="T40" s="5">
-        <v>37</v>
-      </c>
-      <c r="U40" s="5">
-        <v>156</v>
-      </c>
-      <c r="V40" s="5">
-        <v>85</v>
-      </c>
-      <c r="W40" s="5">
-        <v>71</v>
-      </c>
-      <c r="X40" s="5">
-        <v>61</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>13</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4009,22 +4012,22 @@
         <v>22</v>
       </c>
       <c r="I41" s="12">
-        <v>2326</v>
+        <v>2301</v>
       </c>
       <c r="J41" s="12">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="K41" s="5">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="L41" s="5">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M41" s="5">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N41" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="O41" s="12">
         <v>1931</v>
@@ -4036,31 +4039,31 @@
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="S41" s="5">
         <v>4</v>
       </c>
       <c r="T41" s="5">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U41" s="5">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="V41" s="5">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="W41" s="5">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="X41" s="5">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Y41" s="5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z41" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4089,58 +4092,58 @@
         <v>22</v>
       </c>
       <c r="I42" s="5">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="J42" s="5">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="K42" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="5">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M42" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N42" s="5">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O42" s="5">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="P42" s="5">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
       </c>
       <c r="T42" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U42" s="5">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V42" s="5">
         <v>129</v>
       </c>
       <c r="W42" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X42" s="5">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Y42" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z42" s="5">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,22 +4172,22 @@
         <v>97</v>
       </c>
       <c r="I43" s="5">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J43" s="5">
         <v>351</v>
       </c>
       <c r="K43" s="5">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L43" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M43" s="6">
         <v>0</v>
       </c>
       <c r="N43" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="O43" s="5">
         <v>351</v>
@@ -4196,29 +4199,29 @@
         <v>0</v>
       </c>
       <c r="R43" s="5">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S43" s="6">
         <v>0</v>
       </c>
       <c r="T43" s="5">
-        <v>49</v>
-      </c>
-      <c r="U43" s="7">
-        <v>59</v>
-      </c>
-      <c r="V43" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="U43" s="8">
+        <v>53</v>
+      </c>
+      <c r="V43" s="11"/>
       <c r="W43" s="5">
-        <v>59</v>
-      </c>
-      <c r="X43" s="7">
-        <v>80</v>
+        <v>53</v>
+      </c>
+      <c r="X43" s="8">
+        <v>82</v>
       </c>
       <c r="Y43" s="6">
         <v>0</v>
       </c>
       <c r="Z43" s="5">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4247,56 +4250,56 @@
         <v>22</v>
       </c>
       <c r="I44" s="5">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="J44" s="5">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="K44" s="5">
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
       </c>
       <c r="N44" s="5">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O44" s="5">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="P44" s="5">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="Q44" s="5">
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="S44" s="6">
         <v>0</v>
       </c>
       <c r="T44" s="5">
-        <v>23</v>
-      </c>
-      <c r="U44" s="7">
-        <v>0</v>
-      </c>
-      <c r="V44" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11"/>
       <c r="W44" s="5">
         <v>0</v>
       </c>
-      <c r="X44" s="7">
-        <v>23</v>
+      <c r="X44" s="8">
+        <v>8</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
       </c>
       <c r="Z44" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4325,22 +4328,22 @@
         <v>97</v>
       </c>
       <c r="I45" s="5">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="J45" s="5">
         <v>249</v>
       </c>
       <c r="K45" s="5">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L45" s="5">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M45" s="5">
         <v>2</v>
       </c>
       <c r="N45" s="5">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O45" s="5">
         <v>206</v>
@@ -4352,31 +4355,31 @@
         <v>0</v>
       </c>
       <c r="R45" s="5">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="S45" s="5">
         <v>2</v>
       </c>
       <c r="T45" s="5">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="U45" s="5">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="V45" s="5">
         <v>43</v>
       </c>
       <c r="W45" s="5">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="X45" s="5">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="Y45" s="6">
         <v>0</v>
       </c>
       <c r="Z45" s="5">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4405,40 +4408,40 @@
         <v>22</v>
       </c>
       <c r="I46" s="5">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="J46" s="5">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="K46" s="5">
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M46" s="5">
         <v>2</v>
       </c>
       <c r="N46" s="5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O46" s="5">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="P46" s="5">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="5">
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="S46" s="5">
         <v>2</v>
       </c>
       <c r="T46" s="5">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="U46" s="5">
         <v>47</v>
@@ -4450,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="X46" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y46" s="6">
         <v>0</v>
       </c>
       <c r="Z46" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4472,7 +4475,7 @@
       <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -4484,53 +4487,53 @@
       <c r="H47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="10"/>
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11"/>
       <c r="K47" s="5">
         <v>0</v>
       </c>
-      <c r="L47" s="7">
-        <v>37</v>
+      <c r="L47" s="8">
+        <v>8</v>
       </c>
       <c r="M47" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N47" s="5">
-        <v>23</v>
-      </c>
-      <c r="O47" s="7">
+        <v>7</v>
+      </c>
+      <c r="O47" s="5">
         <v>0</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
-      <c r="R47" s="7">
-        <v>21</v>
-      </c>
-      <c r="S47" s="5">
-        <v>13</v>
+      <c r="R47" s="5">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6">
+        <v>0</v>
       </c>
       <c r="T47" s="5">
+        <v>0</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11"/>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="8">
         <v>8</v>
-      </c>
-      <c r="U47" s="7">
-        <v>0</v>
-      </c>
-      <c r="V47" s="10"/>
-      <c r="W47" s="5">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7">
-        <v>16</v>
       </c>
       <c r="Y47" s="5">
         <v>1</v>
       </c>
       <c r="Z47" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4559,58 +4562,58 @@
         <v>22</v>
       </c>
       <c r="I48" s="5">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J48" s="5">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K48" s="5">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L48" s="5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M48" s="5">
         <v>1</v>
       </c>
       <c r="N48" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O48" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P48" s="5">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q48" s="5">
         <v>0</v>
       </c>
       <c r="R48" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S48" s="6">
         <v>0</v>
       </c>
       <c r="T48" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U48" s="5">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="V48" s="5">
         <v>38</v>
       </c>
       <c r="W48" s="5">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="X48" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y48" s="5">
         <v>1</v>
       </c>
       <c r="Z48" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4639,22 +4642,22 @@
         <v>22</v>
       </c>
       <c r="I49" s="5">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J49" s="5">
         <v>485</v>
       </c>
       <c r="K49" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L49" s="5">
-        <v>9</v>
-      </c>
-      <c r="M49" s="5">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
       </c>
       <c r="N49" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O49" s="5">
         <v>485</v>
@@ -4666,29 +4669,29 @@
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <v>2</v>
-      </c>
-      <c r="S49" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <v>0</v>
       </c>
       <c r="T49" s="5">
         <v>0</v>
       </c>
       <c r="U49" s="5">
-        <v>45</v>
-      </c>
-      <c r="V49" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="V49" s="11"/>
       <c r="W49" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X49" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4717,22 +4720,22 @@
         <v>22</v>
       </c>
       <c r="I50" s="5">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J50" s="5">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K50" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L50" s="5">
-        <v>23</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="M50" s="5">
+        <v>3</v>
       </c>
       <c r="N50" s="5">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O50" s="5">
         <v>15</v>
@@ -4753,22 +4756,22 @@
         <v>6</v>
       </c>
       <c r="U50" s="5">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="V50" s="5">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W50" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="X50" s="5">
-        <v>17</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>3</v>
       </c>
       <c r="Z50" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4797,22 +4800,22 @@
         <v>22</v>
       </c>
       <c r="I51" s="5">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J51" s="5">
         <v>456</v>
       </c>
       <c r="K51" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M51" s="5">
         <v>1</v>
       </c>
       <c r="N51" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O51" s="5">
         <v>253</v>
@@ -4833,22 +4836,22 @@
         <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V51" s="5">
         <v>203</v>
       </c>
       <c r="W51" s="5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X51" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,13 +4889,13 @@
         <v>35</v>
       </c>
       <c r="L52" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6">
         <v>0</v>
       </c>
       <c r="N52" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52" s="5">
         <v>404</v>
@@ -4922,13 +4925,13 @@
         <v>35</v>
       </c>
       <c r="X52" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="6">
         <v>0</v>
       </c>
       <c r="Z52" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/transfers/transfers_info.xlsx
+++ b/data/transfers/transfers_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\transfers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\transfers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E514D-D722-48D4-BEC6-7EC3798D56A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A418592-80A6-4B1E-82E8-54A082660F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="130">
   <si>
     <t>Тип</t>
   </si>
@@ -58,37 +58,22 @@
     <t>ПЛАН</t>
   </si>
   <si>
-    <t>03 мая</t>
-  </si>
-  <si>
-    <t>04 мая</t>
-  </si>
-  <si>
-    <t>05 мая</t>
-  </si>
-  <si>
-    <t>06 мая</t>
-  </si>
-  <si>
-    <t>07 мая</t>
-  </si>
-  <si>
-    <t>08 мая</t>
-  </si>
-  <si>
-    <t>09 мая</t>
-  </si>
-  <si>
-    <t>10 мая</t>
-  </si>
-  <si>
-    <t>11 мая</t>
-  </si>
-  <si>
-    <t>12 мая</t>
-  </si>
-  <si>
-    <t>13 мая</t>
+    <t>12 июля</t>
+  </si>
+  <si>
+    <t>13 июля</t>
+  </si>
+  <si>
+    <t>14 июля</t>
+  </si>
+  <si>
+    <t>15 июля</t>
+  </si>
+  <si>
+    <t>16 июля</t>
+  </si>
+  <si>
+    <t>17 июля</t>
   </si>
   <si>
     <t>ОСТ</t>
@@ -115,27 +100,39 @@
     <t>К/Т</t>
   </si>
   <si>
+    <t>Трансфер для открытой ложки</t>
+  </si>
+  <si>
+    <t>Аналог оригинала</t>
+  </si>
+  <si>
+    <t>AB Dental Multi-Unit</t>
+  </si>
+  <si>
+    <t>37112 Трансфер LM (копия оригинала) AB Dental Multi-Unit D=4.5 L=12.5 для открытой ложки без позиционера (арт. D2-P14) V.1</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Версия 1</t>
+  </si>
+  <si>
+    <t>Adin</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>47067 Трансфер LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 L=14 для открытой ложки с позиционером (арт. RS-4514) V.1</t>
+  </si>
+  <si>
     <t>Трансфер для закрытой ложки</t>
   </si>
   <si>
-    <t>Аналог оригинала</t>
-  </si>
-  <si>
-    <t>Adin</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
     <t>47103 Трансфер LM (копия оригинала) Adin RS (3.5/3.75/4.2/5.0/6.0) D=4.5 L=13, слепочный, для закрытой ложки с позиционером (арт. RS5213) V.1</t>
   </si>
   <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Версия 1</t>
-  </si>
-  <si>
     <t>Alpha Bio Internal</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>37006 Трансфер LM (копия оригинала) Alpha Bio Internal D=4.5 L=12, слепочный, для закрытой ложки с позиционером (арт. HLT 5060) V.1</t>
   </si>
   <si>
-    <t>Трансфер для открытой ложки</t>
-  </si>
-  <si>
     <t>37007 Трансфер LM (копия оригинала) Alpha Bio Internal D=5.5 L=12, слепочный, для открытой ложки с позиционером (арт. HLTO 5061) V.1</t>
   </si>
   <si>
@@ -190,7 +184,7 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>47108 Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10, слепочный, для открытой ложки с позиционером (арт. OPPU100) V.1</t>
+    <t>47108 Трансфер LM (копия оригинала) Anthogyr Axiom D=5 L=10 для открытой ложки с позиционером (арт. OPPU100) V.1</t>
   </si>
   <si>
     <t>Astra Tech</t>
@@ -238,7 +232,7 @@
     <t>47077 Трансфер LM (копия оригинала) Implantium D=5.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU5515HL) V.1</t>
   </si>
   <si>
-    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15, слепочный, для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
+    <t>47078 Трансфер LM (копия оригинала) Implantium D=6.5 L=15 для открытой ложки с позиционером (арт. DPU6515HL) V.1</t>
   </si>
   <si>
     <t>Implantium Multi-Unit</t>
@@ -262,16 +256,28 @@
     <t>LENMIRIOT Multi-Unit</t>
   </si>
   <si>
+    <t>(отв. Dentium)</t>
+  </si>
+  <si>
+    <t>47104V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=6.5 д</t>
+  </si>
+  <si>
     <t>(отв. Osstem)</t>
   </si>
   <si>
-    <t>47104 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=6.5 для закрытой ложки V</t>
-  </si>
-  <si>
-    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для открытой ложки V.</t>
-  </si>
-  <si>
-    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для открытой ложки</t>
+    <t>47104 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=6.5 для</t>
+  </si>
+  <si>
+    <t>47105 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 для</t>
+  </si>
+  <si>
+    <t>47105V2 Трансфер LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Ankylos) / (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem) D=4.8 L=10 дл</t>
+  </si>
+  <si>
+    <t>MegaGen AnyOne</t>
+  </si>
+  <si>
+    <t>37032 Трансфер LM (копия оригинала) MegaGen AnyOne D=4 L=12, слепочный, для открытой ложки с позиционером (арт. IP4012HT) V.1</t>
   </si>
   <si>
     <t>MegaGen AnyRidge</t>
@@ -295,10 +301,7 @@
     <t>Mis C1 (Conical)</t>
   </si>
   <si>
-    <t>37076 Трансфер LM (копия оригинала) Mis C1 (Conical) SP (3.75/4.2) D=4.8 L=11, слепочный, для открытой ложки с позиционером (арт. CS-I0375) V.1</t>
-  </si>
-  <si>
-    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=4 L=11, слепочный, для открытой ложки с позиционером V.1</t>
+    <t>37132 Трансфер LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=3.75 L=11 для открытой ложки с позиционером V.1</t>
   </si>
   <si>
     <t>Nobel Active</t>
@@ -374,6 +377,12 @@
   </si>
   <si>
     <t>Straumann SynOcta</t>
+  </si>
+  <si>
+    <t>RN (4.8)</t>
+  </si>
+  <si>
+    <t>37078 Трансфер LM (копия оригинала) Straumann SynOcta RN (4.8) D=5.7 L=11.4, слепочный, для открытой ложки с позиционером (арт. 048.090) V.1</t>
   </si>
   <si>
     <t>WN (6.5)</t>
@@ -407,9 +416,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="00&quot; мая&quot;"/>
-    <numFmt numFmtId="165" formatCode="0&quot; мая&quot;"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0&quot; июля&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -447,12 +455,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4E1"/>
+        <fgColor rgb="FFFF7F50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F50"/>
+        <fgColor rgb="FFFFE4E1"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -556,31 +564,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -942,7 +947,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -953,10 +958,10 @@
     <col min="1" max="4" width="15.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="74.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" style="1" customWidth="1"/>
     <col min="15" max="16" width="8.1640625" style="1" customWidth="1" outlineLevel="1"/>
@@ -972,62 +977,62 @@
     <col min="26" max="26" width="6.1640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="8.1640625" style="1" customWidth="1"/>
     <col min="28" max="28" width="7.6640625" style="1" customWidth="1"/>
-    <col min="29" max="39" width="12.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="34" width="13.6640625" style="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:34" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19" t="s">
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="19"/>
+      <c r="AB1" s="18"/>
       <c r="AC1" s="2" t="s">
         <v>12</v>
       </c>
@@ -1046,226 +1051,189 @@
       <c r="AH1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AB2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AC2" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="AD2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="19" t="s">
+    <row r="3" spans="1:34" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19" t="s">
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19" t="s">
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19" t="s">
+      <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="16" t="s">
+      <c r="Q3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="R3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+    </row>
+    <row r="4" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-    </row>
-    <row r="4" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" s="5">
-        <v>295</v>
+        <v>436</v>
       </c>
       <c r="J4" s="5">
-        <v>224</v>
+        <v>416</v>
       </c>
       <c r="K4" s="5">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="L4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6">
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>174</v>
+        <v>416</v>
       </c>
       <c r="P4" s="5">
-        <v>174</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
@@ -1280,452 +1248,431 @@
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>121</v>
-      </c>
-      <c r="V4" s="5">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="V4" s="7"/>
       <c r="W4" s="5">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="X4" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="6">
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" s="5">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="J5" s="5">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="K5" s="5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>32</v>
-      </c>
-      <c r="M5" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="P5" s="5">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6">
         <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
-        <v>145</v>
-      </c>
-      <c r="V5" s="5">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V5" s="8"/>
       <c r="W5" s="5">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X5" s="5">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
       </c>
       <c r="Z5" s="5">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5">
+        <v>220</v>
+      </c>
+      <c r="J6" s="5">
+        <v>161</v>
+      </c>
+      <c r="K6" s="5">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="9">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5">
-        <v>29</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>140</v>
-      </c>
-      <c r="M6" s="5">
-        <v>76</v>
-      </c>
-      <c r="N6" s="5">
-        <v>64</v>
-      </c>
-      <c r="O6" s="9">
-        <v>6</v>
+      <c r="O6" s="5">
+        <v>111</v>
       </c>
       <c r="P6" s="5">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
-        <v>44</v>
+      <c r="R6" s="5">
+        <v>40</v>
       </c>
       <c r="S6" s="5">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T6" s="5">
         <v>20</v>
       </c>
-      <c r="U6" s="9">
-        <v>25</v>
+      <c r="U6" s="5">
+        <v>109</v>
       </c>
       <c r="V6" s="5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="W6" s="5">
-        <v>2</v>
-      </c>
-      <c r="X6" s="9">
-        <v>96</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="X6" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
       </c>
       <c r="Z6" s="5">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
     </row>
-    <row r="7" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5">
-        <v>19</v>
+        <v>544</v>
       </c>
       <c r="J7" s="5">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="K7" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O7" s="5">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="P7" s="5">
-        <v>19</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="V7" s="5">
+        <v>89</v>
+      </c>
       <c r="W7" s="5">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="X7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="6">
         <v>0</v>
       </c>
       <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11"/>
+        <v>259</v>
+      </c>
+      <c r="J8" s="5">
+        <v>187</v>
+      </c>
       <c r="K8" s="5">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="M8" s="5">
+        <v>16</v>
       </c>
       <c r="N8" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="P8" s="5">
+        <v>125</v>
+      </c>
       <c r="Q8" s="5">
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="S8" s="5">
+        <v>16</v>
       </c>
       <c r="T8" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U8" s="5">
-        <v>1</v>
-      </c>
-      <c r="V8" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="V8" s="5">
+        <v>62</v>
+      </c>
       <c r="W8" s="5">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="X8" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y8" s="6">
         <v>0</v>
       </c>
       <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I9" s="5">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J9" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K9" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="6">
         <v>0</v>
       </c>
       <c r="N9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="5">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="P9" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -1737,1744 +1684,1637 @@
         <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>12</v>
-      </c>
-      <c r="V9" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="8"/>
       <c r="W9" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="6">
         <v>0</v>
       </c>
       <c r="Z9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5">
-        <v>396</v>
-      </c>
-      <c r="J10" s="5">
-        <v>306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L10" s="5">
-        <v>73</v>
-      </c>
-      <c r="M10" s="5">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
-        <v>219</v>
-      </c>
-      <c r="P10" s="5">
-        <v>219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8"/>
       <c r="Q10" s="5">
         <v>0</v>
       </c>
       <c r="R10" s="5">
-        <v>30</v>
-      </c>
-      <c r="S10" s="5">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
       </c>
       <c r="T10" s="5">
         <v>0</v>
       </c>
       <c r="U10" s="5">
-        <v>177</v>
-      </c>
-      <c r="V10" s="5">
-        <v>87</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V10" s="7"/>
       <c r="W10" s="5">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="X10" s="5">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
       </c>
       <c r="Z10" s="5">
-        <v>37</v>
-      </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
     </row>
-    <row r="11" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="J11" s="5">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="K11" s="5">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M11" s="6">
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O11" s="5">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="P11" s="5">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="5">
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
       </c>
       <c r="T11" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" s="5">
-        <v>122</v>
-      </c>
-      <c r="V11" s="5">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V11" s="7"/>
       <c r="W11" s="5">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="X11" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="6">
         <v>0</v>
       </c>
       <c r="Z11" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
     </row>
-    <row r="12" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5">
+        <v>154</v>
+      </c>
+      <c r="J12" s="5">
+        <v>61</v>
+      </c>
+      <c r="K12" s="5">
+        <v>93</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45</v>
+      </c>
+      <c r="M12" s="5">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5">
+        <v>21</v>
+      </c>
+      <c r="O12" s="5">
         <v>56</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="5">
-        <v>231</v>
-      </c>
-      <c r="J12" s="5">
-        <v>175</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="P12" s="5">
         <v>56</v>
       </c>
-      <c r="L12" s="5">
-        <v>46</v>
-      </c>
-      <c r="M12" s="5">
-        <v>30</v>
-      </c>
-      <c r="N12" s="5">
-        <v>16</v>
-      </c>
-      <c r="O12" s="5">
-        <v>114</v>
-      </c>
-      <c r="P12" s="5">
-        <v>114</v>
-      </c>
       <c r="Q12" s="5">
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U12" s="5">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="V12" s="5">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="W12" s="5">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="X12" s="5">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Y12" s="5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z12" s="5">
-        <v>6</v>
-      </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
     </row>
-    <row r="13" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5">
+        <v>58</v>
+      </c>
+      <c r="J13" s="5">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="5">
-        <v>166</v>
-      </c>
-      <c r="J13" s="5">
-        <v>96</v>
-      </c>
-      <c r="K13" s="5">
-        <v>70</v>
-      </c>
       <c r="L13" s="5">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="M13" s="5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N13" s="5">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="O13" s="5">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="P13" s="5">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="5">
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S13" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T13" s="5">
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>127</v>
-      </c>
-      <c r="V13" s="5">
-        <v>57</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="V13" s="7"/>
       <c r="W13" s="5">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X13" s="5">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Y13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="5">
-        <v>36</v>
-      </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
     </row>
-    <row r="14" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J14" s="5">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="K14" s="5">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="L14" s="5">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M14" s="5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N14" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O14" s="5">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="P14" s="5">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S14" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T14" s="5">
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>133</v>
-      </c>
-      <c r="V14" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="V14" s="5">
+        <v>72</v>
+      </c>
       <c r="W14" s="5">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="X14" s="5">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>10</v>
       </c>
       <c r="Z14" s="5">
-        <v>32</v>
-      </c>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
     </row>
-    <row r="15" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5">
+        <v>164</v>
+      </c>
+      <c r="J15" s="5">
+        <v>76</v>
+      </c>
+      <c r="K15" s="5">
+        <v>88</v>
+      </c>
+      <c r="L15" s="5">
+        <v>69</v>
+      </c>
+      <c r="M15" s="5">
+        <v>32</v>
+      </c>
+      <c r="N15" s="5">
         <v>37</v>
       </c>
-      <c r="I15" s="5">
-        <v>129</v>
-      </c>
-      <c r="J15" s="5">
-        <v>70</v>
-      </c>
-      <c r="K15" s="5">
-        <v>59</v>
-      </c>
-      <c r="L15" s="5">
-        <v>27</v>
-      </c>
-      <c r="M15" s="5">
-        <v>2</v>
-      </c>
-      <c r="N15" s="5">
-        <v>25</v>
-      </c>
       <c r="O15" s="5">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P15" s="5">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="5">
         <v>0</v>
       </c>
       <c r="R15" s="5">
-        <v>4</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="S15" s="5">
+        <v>11</v>
       </c>
       <c r="T15" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="V15" s="5">
         <v>31</v>
       </c>
       <c r="W15" s="5">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="X15" s="5">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="Y15" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="Z15" s="5">
-        <v>21</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
     </row>
-    <row r="16" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I16" s="5">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="J16" s="5">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="K16" s="5">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L16" s="5">
-        <v>23</v>
-      </c>
-      <c r="M16" s="5">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
       </c>
       <c r="N16" s="5">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="O16" s="5">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="P16" s="5">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="5">
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U16" s="5">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="V16" s="5">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="W16" s="5">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X16" s="5">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>16</v>
-      </c>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
     </row>
-    <row r="17" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5">
-        <v>333</v>
+        <v>52</v>
       </c>
       <c r="J17" s="5">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="K17" s="5">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="L17" s="5">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5">
         <v>25</v>
       </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <v>24</v>
-      </c>
-      <c r="O17" s="5">
-        <v>203</v>
+      <c r="O17" s="10">
+        <v>4</v>
       </c>
       <c r="P17" s="5">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="5">
-        <v>4</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0</v>
+      <c r="R17" s="10">
+        <v>5</v>
+      </c>
+      <c r="S17" s="5">
+        <v>5</v>
       </c>
       <c r="T17" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U17" s="5">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="V17" s="5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="W17" s="5">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="X17" s="5">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0</v>
       </c>
       <c r="Z17" s="5">
-        <v>20</v>
-      </c>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
       <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
     </row>
-    <row r="18" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5">
-        <v>483</v>
+        <v>355</v>
       </c>
       <c r="J18" s="5">
-        <v>402</v>
+        <v>266</v>
       </c>
       <c r="K18" s="5">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L18" s="5">
-        <v>17</v>
-      </c>
-      <c r="M18" s="5">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
       </c>
       <c r="N18" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O18" s="5">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="P18" s="5">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="5">
         <v>0</v>
       </c>
       <c r="R18" s="5">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
       </c>
       <c r="T18" s="5">
         <v>0</v>
       </c>
       <c r="U18" s="5">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="V18" s="5">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="W18" s="5">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="X18" s="5">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
       </c>
       <c r="Z18" s="5">
-        <v>11</v>
-      </c>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I19" s="5">
-        <v>549</v>
+        <v>265</v>
       </c>
       <c r="J19" s="5">
-        <v>451</v>
+        <v>150</v>
       </c>
       <c r="K19" s="5">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L19" s="5">
-        <v>281</v>
-      </c>
-      <c r="M19" s="5">
-        <v>161</v>
+        <v>17</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
       </c>
       <c r="N19" s="5">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="O19" s="5">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="P19" s="5">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>114</v>
-      </c>
-      <c r="S19" s="5">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
       </c>
       <c r="T19" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U19" s="5">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="V19" s="5">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="W19" s="5">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="X19" s="5">
-        <v>167</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
       </c>
       <c r="Z19" s="5">
-        <v>102</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
     </row>
-    <row r="20" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I20" s="5">
-        <v>96</v>
+        <v>425</v>
       </c>
       <c r="J20" s="5">
-        <v>96</v>
+        <v>368</v>
       </c>
       <c r="K20" s="5">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L20" s="5">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="M20" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N20" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7"/>
+        <v>293</v>
+      </c>
+      <c r="P20" s="5">
+        <v>293</v>
+      </c>
       <c r="Q20" s="5">
         <v>0</v>
       </c>
       <c r="R20" s="5">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="S20" s="5">
+        <v>20</v>
       </c>
       <c r="T20" s="5">
         <v>0</v>
       </c>
       <c r="U20" s="5">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="V20" s="5">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="W20" s="5">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="X20" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0</v>
       </c>
       <c r="Z20" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB20" s="12">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
-      <c r="AE20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>6</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>7</v>
-      </c>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
       <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
     </row>
-    <row r="21" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>70</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="9">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="I21" s="5">
+        <v>673</v>
       </c>
       <c r="J21" s="5">
-        <v>49</v>
+        <v>563</v>
       </c>
       <c r="K21" s="5">
-        <v>20</v>
-      </c>
-      <c r="L21" s="9">
-        <v>71</v>
+        <v>110</v>
+      </c>
+      <c r="L21" s="5">
+        <v>101</v>
       </c>
       <c r="M21" s="5">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="N21" s="5">
-        <v>69</v>
-      </c>
-      <c r="O21" s="9">
-        <v>1</v>
-      </c>
-      <c r="P21" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="O21" s="5">
+        <v>366</v>
+      </c>
+      <c r="P21" s="5">
+        <v>366</v>
+      </c>
       <c r="Q21" s="5">
-        <v>1</v>
-      </c>
-      <c r="R21" s="9">
-        <v>21</v>
-      </c>
-      <c r="S21" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>17</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
       </c>
       <c r="T21" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U21" s="5">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="V21" s="5">
-        <v>49</v>
+        <v>197</v>
       </c>
       <c r="W21" s="5">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="X21" s="5">
-        <v>50</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>42</v>
       </c>
       <c r="Z21" s="5">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
     </row>
-    <row r="22" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1029</v>
+      </c>
+      <c r="J22" s="5">
+        <v>864</v>
+      </c>
+      <c r="K22" s="5">
+        <v>165</v>
+      </c>
+      <c r="L22" s="5">
+        <v>180</v>
+      </c>
+      <c r="M22" s="5">
+        <v>69</v>
+      </c>
+      <c r="N22" s="5">
+        <v>111</v>
+      </c>
+      <c r="O22" s="5">
+        <v>677</v>
+      </c>
+      <c r="P22" s="5">
+        <v>677</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>87</v>
+      </c>
+      <c r="S22" s="5">
+        <v>12</v>
+      </c>
+      <c r="T22" s="5">
+        <v>75</v>
+      </c>
+      <c r="U22" s="5">
+        <v>352</v>
+      </c>
+      <c r="V22" s="5">
+        <v>187</v>
+      </c>
+      <c r="W22" s="5">
+        <v>165</v>
+      </c>
+      <c r="X22" s="5">
+        <v>93</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="5">
         <v>36</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="5">
-        <v>472</v>
-      </c>
-      <c r="J22" s="5">
-        <v>385</v>
-      </c>
-      <c r="K22" s="5">
-        <v>87</v>
-      </c>
-      <c r="L22" s="5">
-        <v>161</v>
-      </c>
-      <c r="M22" s="5">
-        <v>121</v>
-      </c>
-      <c r="N22" s="5">
-        <v>40</v>
-      </c>
-      <c r="O22" s="5">
-        <v>227</v>
-      </c>
-      <c r="P22" s="5">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>53</v>
-      </c>
-      <c r="S22" s="5">
-        <v>51</v>
-      </c>
-      <c r="T22" s="5">
-        <v>2</v>
-      </c>
-      <c r="U22" s="5">
-        <v>245</v>
-      </c>
-      <c r="V22" s="5">
-        <v>158</v>
-      </c>
-      <c r="W22" s="5">
-        <v>87</v>
-      </c>
-      <c r="X22" s="5">
-        <v>108</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>38</v>
-      </c>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
     </row>
-    <row r="23" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5">
+        <v>505</v>
+      </c>
+      <c r="J23" s="5">
+        <v>389</v>
+      </c>
+      <c r="K23" s="5">
+        <v>116</v>
+      </c>
+      <c r="L23" s="5">
+        <v>90</v>
+      </c>
+      <c r="M23" s="5">
         <v>39</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="5">
-        <v>683</v>
-      </c>
-      <c r="J23" s="5">
-        <v>598</v>
-      </c>
-      <c r="K23" s="5">
-        <v>85</v>
-      </c>
-      <c r="L23" s="5">
-        <v>46</v>
-      </c>
-      <c r="M23" s="5">
-        <v>10</v>
-      </c>
       <c r="N23" s="5">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="O23" s="5">
-        <v>543</v>
+        <v>263</v>
       </c>
       <c r="P23" s="5">
-        <v>543</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="5">
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="S23" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T23" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U23" s="5">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="V23" s="5">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="W23" s="5">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="X23" s="5">
-        <v>36</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>28</v>
       </c>
       <c r="Z23" s="5">
-        <v>36</v>
-      </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
     </row>
-    <row r="24" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="5">
+        <v>870</v>
+      </c>
+      <c r="J24" s="5">
+        <v>808</v>
+      </c>
+      <c r="K24" s="5">
+        <v>62</v>
+      </c>
+      <c r="L24" s="5">
         <v>32</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="5">
-        <v>516</v>
-      </c>
-      <c r="J24" s="5">
-        <v>422</v>
-      </c>
-      <c r="K24" s="5">
-        <v>94</v>
-      </c>
-      <c r="L24" s="5">
-        <v>59</v>
-      </c>
       <c r="M24" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N24" s="5">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="O24" s="5">
-        <v>391</v>
+        <v>631</v>
       </c>
       <c r="P24" s="5">
-        <v>391</v>
+        <v>631</v>
       </c>
       <c r="Q24" s="5">
         <v>0</v>
       </c>
       <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>239</v>
+      </c>
+      <c r="V24" s="5">
+        <v>177</v>
+      </c>
+      <c r="W24" s="5">
+        <v>62</v>
+      </c>
+      <c r="X24" s="5">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="5">
         <v>14</v>
       </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>14</v>
-      </c>
-      <c r="U24" s="5">
-        <v>125</v>
-      </c>
-      <c r="V24" s="5">
-        <v>31</v>
-      </c>
-      <c r="W24" s="5">
-        <v>94</v>
-      </c>
-      <c r="X24" s="5">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>8</v>
-      </c>
       <c r="Z24" s="5">
-        <v>37</v>
-      </c>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
     </row>
-    <row r="25" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I25" s="5">
-        <v>139</v>
+        <v>520</v>
       </c>
       <c r="J25" s="5">
-        <v>86</v>
+        <v>505</v>
       </c>
       <c r="K25" s="5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="L25" s="5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M25" s="5">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N25" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O25" s="5">
-        <v>57</v>
+        <v>402</v>
       </c>
       <c r="P25" s="5">
-        <v>57</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="5">
         <v>0</v>
       </c>
       <c r="R25" s="5">
-        <v>4</v>
-      </c>
-      <c r="S25" s="5">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
       </c>
       <c r="T25" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U25" s="5">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="V25" s="5">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="W25" s="5">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>22</v>
       </c>
       <c r="Z25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
     </row>
-    <row r="26" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="I26" s="5">
-        <v>236</v>
+        <v>394</v>
       </c>
       <c r="J26" s="5">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="K26" s="5">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="L26" s="5">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M26" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N26" s="5">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="O26" s="5">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="P26" s="5">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="Q26" s="5">
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="S26" s="5">
+        <v>10</v>
       </c>
       <c r="T26" s="5">
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V26" s="5">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="W26" s="5">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="X26" s="5">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
       </c>
       <c r="Z26" s="5">
-        <v>24</v>
-      </c>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
     </row>
-    <row r="27" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I27" s="5">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="J27" s="5">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K27" s="5">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="L27" s="5">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="M27" s="5">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="N27" s="5">
-        <v>92</v>
-      </c>
-      <c r="O27" s="9">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>34</v>
       </c>
       <c r="P27" s="5">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="5">
         <v>0</v>
       </c>
-      <c r="R27" s="9">
-        <v>60</v>
+      <c r="R27" s="5">
+        <v>8</v>
       </c>
       <c r="S27" s="5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="T27" s="5">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="V27" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="W27" s="5">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="X27" s="5">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="Y27" s="5">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Z27" s="5">
-        <v>63</v>
-      </c>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
     </row>
-    <row r="28" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>948</v>
+      </c>
+      <c r="J28" s="5">
+        <v>678</v>
+      </c>
       <c r="K28" s="5">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="L28" s="5">
         <v>0</v>
@@ -3486,9 +3326,11 @@
         <v>0</v>
       </c>
       <c r="O28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7"/>
+        <v>678</v>
+      </c>
+      <c r="P28" s="5">
+        <v>678</v>
+      </c>
       <c r="Q28" s="5">
         <v>0</v>
       </c>
@@ -3502,11 +3344,11 @@
         <v>0</v>
       </c>
       <c r="U28" s="5">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="V28" s="7"/>
       <c r="W28" s="5">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="X28" s="5">
         <v>0</v>
@@ -3517,2270 +3359,2498 @@
       <c r="Z28" s="5">
         <v>0</v>
       </c>
-      <c r="AA28" s="5">
-        <v>6</v>
-      </c>
-      <c r="AB28" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="13">
-        <v>4</v>
-      </c>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
     </row>
-    <row r="29" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I29" s="5">
-        <v>418</v>
+        <v>211</v>
       </c>
       <c r="J29" s="5">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="K29" s="5">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="L29" s="5">
-        <v>98</v>
-      </c>
-      <c r="M29" s="5">
         <v>6</v>
       </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
       <c r="N29" s="5">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="O29" s="5">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="P29" s="5">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="5">
         <v>0</v>
       </c>
       <c r="R29" s="5">
+        <v>1</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>1</v>
+      </c>
+      <c r="U29" s="5">
+        <v>207</v>
+      </c>
+      <c r="V29" s="5">
         <v>40</v>
       </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29" s="5">
-        <v>40</v>
-      </c>
-      <c r="U29" s="5">
-        <v>212</v>
-      </c>
-      <c r="V29" s="5">
-        <v>123</v>
-      </c>
       <c r="W29" s="5">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="X29" s="5">
-        <v>58</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="Y29" s="6">
+        <v>0</v>
       </c>
       <c r="Z29" s="5">
-        <v>52</v>
-      </c>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
     </row>
-    <row r="30" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I30" s="5">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="J30" s="5">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="K30" s="5">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L30" s="5">
-        <v>36</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="M30" s="5">
+        <v>3</v>
       </c>
       <c r="N30" s="5">
-        <v>36</v>
-      </c>
-      <c r="O30" s="5">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="O30" s="10">
+        <v>3</v>
       </c>
       <c r="P30" s="5">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="5">
-        <v>8</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <v>7</v>
       </c>
       <c r="S30" s="6">
         <v>0</v>
       </c>
       <c r="T30" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U30" s="5">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="V30" s="5">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="W30" s="5">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="X30" s="5">
-        <v>36</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>3</v>
       </c>
       <c r="Z30" s="5">
-        <v>36</v>
-      </c>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
     </row>
-    <row r="31" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="5">
-        <v>514</v>
+        <v>45</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1023</v>
       </c>
       <c r="J31" s="5">
-        <v>433</v>
+        <v>753</v>
       </c>
       <c r="K31" s="5">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="L31" s="5">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M31" s="5">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N31" s="5">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O31" s="5">
-        <v>344</v>
+        <v>753</v>
       </c>
       <c r="P31" s="5">
-        <v>344</v>
+        <v>753</v>
       </c>
       <c r="Q31" s="5">
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="S31" s="5">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="T31" s="5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="U31" s="5">
-        <v>170</v>
-      </c>
-      <c r="V31" s="5">
-        <v>89</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="V31" s="7"/>
       <c r="W31" s="5">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="X31" s="5">
-        <v>28</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <v>21</v>
-      </c>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
     </row>
-    <row r="32" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I32" s="5">
+        <v>672</v>
+      </c>
+      <c r="J32" s="5">
+        <v>608</v>
+      </c>
+      <c r="K32" s="5">
+        <v>64</v>
+      </c>
+      <c r="L32" s="5">
+        <v>86</v>
+      </c>
+      <c r="M32" s="5">
+        <v>12</v>
+      </c>
+      <c r="N32" s="5">
+        <v>74</v>
+      </c>
+      <c r="O32" s="5">
+        <v>467</v>
+      </c>
+      <c r="P32" s="5">
+        <v>467</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="5">
+      <c r="S32" s="5">
         <v>1</v>
       </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="5">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0</v>
-      </c>
       <c r="T32" s="5">
         <v>0</v>
       </c>
       <c r="U32" s="5">
-        <v>1</v>
-      </c>
-      <c r="V32" s="11"/>
+        <v>205</v>
+      </c>
+      <c r="V32" s="5">
+        <v>141</v>
+      </c>
       <c r="W32" s="5">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>11</v>
       </c>
       <c r="Z32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
     </row>
-    <row r="33" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="5">
+        <v>491</v>
+      </c>
+      <c r="J33" s="5">
+        <v>366</v>
+      </c>
+      <c r="K33" s="5">
+        <v>125</v>
+      </c>
+      <c r="L33" s="5">
+        <v>80</v>
+      </c>
+      <c r="M33" s="5">
+        <v>24</v>
+      </c>
+      <c r="N33" s="5">
+        <v>56</v>
+      </c>
+      <c r="O33" s="5">
+        <v>296</v>
+      </c>
+      <c r="P33" s="5">
+        <v>296</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>21</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>20</v>
+      </c>
+      <c r="U33" s="5">
+        <v>195</v>
+      </c>
+      <c r="V33" s="5">
+        <v>70</v>
+      </c>
+      <c r="W33" s="5">
+        <v>125</v>
+      </c>
+      <c r="X33" s="5">
+        <v>59</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>23</v>
+      </c>
+      <c r="Z33" s="5">
         <v>36</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="5">
-        <v>221</v>
-      </c>
-      <c r="J33" s="5">
-        <v>163</v>
-      </c>
-      <c r="K33" s="5">
-        <v>58</v>
-      </c>
-      <c r="L33" s="5">
-        <v>58</v>
-      </c>
-      <c r="M33" s="5">
-        <v>17</v>
-      </c>
-      <c r="N33" s="5">
-        <v>41</v>
-      </c>
-      <c r="O33" s="5">
-        <v>43</v>
-      </c>
-      <c r="P33" s="5">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>20</v>
-      </c>
-      <c r="S33" s="5">
-        <v>5</v>
-      </c>
-      <c r="T33" s="5">
-        <v>15</v>
-      </c>
-      <c r="U33" s="5">
-        <v>178</v>
-      </c>
-      <c r="V33" s="5">
-        <v>120</v>
-      </c>
-      <c r="W33" s="5">
-        <v>58</v>
-      </c>
-      <c r="X33" s="5">
-        <v>38</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>26</v>
-      </c>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
     </row>
-    <row r="34" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I34" s="5">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="J34" s="5">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="K34" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L34" s="5">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="M34" s="5">
+        <v>3</v>
       </c>
       <c r="N34" s="5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7"/>
+        <v>274</v>
+      </c>
+      <c r="P34" s="5">
+        <v>266</v>
+      </c>
       <c r="Q34" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R34" s="5">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
       </c>
       <c r="T34" s="5">
         <v>0</v>
       </c>
       <c r="U34" s="5">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="V34" s="5">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="W34" s="5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="X34" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>2</v>
       </c>
       <c r="Z34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
     </row>
-    <row r="35" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I35" s="5">
-        <v>208</v>
+        <v>406</v>
       </c>
       <c r="J35" s="5">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="K35" s="5">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L35" s="5">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="M35" s="5">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="N35" s="5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O35" s="5">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="P35" s="5">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="5">
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <v>70</v>
-      </c>
-      <c r="S35" s="5">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
       </c>
       <c r="T35" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U35" s="5">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="V35" s="5">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="W35" s="5">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="X35" s="5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Y35" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="5">
-        <v>27</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
     </row>
-    <row r="36" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="F36" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="9">
-        <v>95</v>
-      </c>
-      <c r="J36" s="5">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1837</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1751</v>
       </c>
       <c r="K36" s="5">
-        <v>30</v>
-      </c>
-      <c r="L36" s="9">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="L36" s="5">
+        <v>27</v>
       </c>
       <c r="M36" s="5">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="N36" s="5">
-        <v>48</v>
-      </c>
-      <c r="O36" s="9">
-        <v>14</v>
-      </c>
-      <c r="P36" s="5">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="O36" s="11">
+        <v>1672</v>
+      </c>
+      <c r="P36" s="11">
+        <v>1672</v>
       </c>
       <c r="Q36" s="5">
         <v>0</v>
       </c>
-      <c r="R36" s="9">
-        <v>35</v>
+      <c r="R36" s="5">
+        <v>3</v>
       </c>
       <c r="S36" s="5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="T36" s="5">
         <v>0</v>
       </c>
       <c r="U36" s="5">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="V36" s="5">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="W36" s="5">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="X36" s="5">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="Y36" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="5">
-        <v>48</v>
-      </c>
-      <c r="AA36" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB36" s="12">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
-      <c r="AH36" s="13">
-        <v>8</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>9</v>
-      </c>
-      <c r="AJ36" s="14">
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="5">
         <v>10</v>
       </c>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-    </row>
-    <row r="37" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="5">
-        <v>482</v>
-      </c>
       <c r="J37" s="5">
-        <v>412</v>
+        <v>10</v>
       </c>
       <c r="K37" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>51</v>
-      </c>
-      <c r="M37" s="5">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
       </c>
       <c r="N37" s="5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O37" s="5">
-        <v>278</v>
-      </c>
-      <c r="P37" s="5">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P37" s="8"/>
       <c r="Q37" s="5">
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <v>20</v>
-      </c>
-      <c r="S37" s="5">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
       </c>
       <c r="T37" s="5">
         <v>0</v>
       </c>
       <c r="U37" s="5">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="V37" s="5">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="W37" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="X37" s="5">
-        <v>31</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
       </c>
       <c r="Z37" s="5">
-        <v>22</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
       <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
     </row>
-    <row r="38" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I38" s="5">
-        <v>499</v>
+        <v>126</v>
       </c>
       <c r="J38" s="5">
-        <v>404</v>
+        <v>110</v>
       </c>
       <c r="K38" s="5">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="L38" s="5">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M38" s="5">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="N38" s="5">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="O38" s="5">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="P38" s="5">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="5">
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S38" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T38" s="5">
         <v>0</v>
       </c>
       <c r="U38" s="5">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="V38" s="5">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="W38" s="5">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="X38" s="5">
-        <v>33</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0</v>
       </c>
       <c r="Z38" s="5">
-        <v>13</v>
-      </c>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
     </row>
-    <row r="39" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="11"/>
+        <v>461</v>
+      </c>
+      <c r="J39" s="5">
+        <v>371</v>
+      </c>
       <c r="K39" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="M39" s="5">
+        <v>2</v>
       </c>
       <c r="N39" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="P39" s="5">
+        <v>278</v>
+      </c>
       <c r="Q39" s="5">
         <v>0</v>
       </c>
       <c r="R39" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S39" s="6">
         <v>0</v>
       </c>
       <c r="T39" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U39" s="5">
-        <v>1</v>
-      </c>
-      <c r="V39" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="V39" s="5">
+        <v>93</v>
+      </c>
       <c r="W39" s="5">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="6">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>2</v>
       </c>
       <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
     </row>
-    <row r="40" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I40" s="5">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="J40" s="5">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="K40" s="5">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="L40" s="5">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="M40" s="5">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="N40" s="5">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="O40" s="5">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="P40" s="5">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="Q40" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R40" s="5">
-        <v>117</v>
-      </c>
-      <c r="S40" s="5">
-        <v>74</v>
+        <v>0</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0</v>
       </c>
       <c r="T40" s="5">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="U40" s="5">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="V40" s="5">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="W40" s="5">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="X40" s="5">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="Y40" s="5">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Z40" s="5">
-        <v>55</v>
-      </c>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
     </row>
-    <row r="41" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I41" s="5">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="J41" s="5">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="K41" s="5">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="L41" s="5">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="M41" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" s="5">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="O41" s="5">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="P41" s="5">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="Q41" s="5">
         <v>0</v>
       </c>
       <c r="R41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="6">
         <v>0</v>
       </c>
       <c r="T41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="5">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="V41" s="5">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="W41" s="5">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="X41" s="5">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Y41" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z41" s="5">
-        <v>35</v>
-      </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
     </row>
-    <row r="42" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="15">
-        <v>2253</v>
-      </c>
-      <c r="J42" s="15">
-        <v>2206</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7"/>
       <c r="K42" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5">
-        <v>121</v>
-      </c>
-      <c r="M42" s="5">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
       </c>
       <c r="N42" s="5">
-        <v>97</v>
-      </c>
-      <c r="O42" s="15">
-        <v>1931</v>
-      </c>
-      <c r="P42" s="15">
-        <v>1931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8"/>
       <c r="Q42" s="5">
         <v>0</v>
       </c>
       <c r="R42" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S42" s="6">
         <v>0</v>
       </c>
       <c r="T42" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U42" s="5">
-        <v>322</v>
-      </c>
-      <c r="V42" s="5">
-        <v>275</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V42" s="7"/>
       <c r="W42" s="5">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="X42" s="5">
-        <v>97</v>
-      </c>
-      <c r="Y42" s="5">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
       </c>
       <c r="Z42" s="5">
-        <v>73</v>
-      </c>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
     </row>
-    <row r="43" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="10">
+        <v>155</v>
+      </c>
+      <c r="J43" s="5">
+        <v>46</v>
+      </c>
+      <c r="K43" s="5">
+        <v>109</v>
+      </c>
+      <c r="L43" s="10">
+        <v>191</v>
+      </c>
+      <c r="M43" s="5">
+        <v>89</v>
+      </c>
+      <c r="N43" s="5">
+        <v>102</v>
+      </c>
+      <c r="O43" s="10">
+        <v>5</v>
+      </c>
+      <c r="P43" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <v>91</v>
+      </c>
+      <c r="S43" s="5">
+        <v>51</v>
+      </c>
+      <c r="T43" s="5">
+        <v>40</v>
+      </c>
+      <c r="U43" s="5">
+        <v>150</v>
+      </c>
+      <c r="V43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="W43" s="5">
         <v>109</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="5">
-        <v>333</v>
-      </c>
-      <c r="J43" s="5">
-        <v>229</v>
-      </c>
-      <c r="K43" s="5">
-        <v>104</v>
-      </c>
-      <c r="L43" s="5">
-        <v>44</v>
-      </c>
-      <c r="M43" s="5">
-        <v>15</v>
-      </c>
-      <c r="N43" s="5">
-        <v>29</v>
-      </c>
-      <c r="O43" s="5">
-        <v>93</v>
-      </c>
-      <c r="P43" s="5">
-        <v>93</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
+      <c r="X43" s="5">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>38</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>62</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>9</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD43" s="14">
+        <v>13</v>
+      </c>
+      <c r="AE43" s="14">
         <v>14</v>
       </c>
-      <c r="S43" s="6">
-        <v>0</v>
-      </c>
-      <c r="T43" s="5">
-        <v>14</v>
-      </c>
-      <c r="U43" s="5">
-        <v>240</v>
-      </c>
-      <c r="V43" s="5">
-        <v>136</v>
-      </c>
-      <c r="W43" s="5">
-        <v>104</v>
-      </c>
-      <c r="X43" s="5">
-        <v>30</v>
-      </c>
-      <c r="Y43" s="5">
-        <v>15</v>
-      </c>
-      <c r="Z43" s="5">
-        <v>15</v>
-      </c>
-      <c r="AA43" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB43" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="14">
-        <v>11</v>
-      </c>
-      <c r="AL43" s="14">
-        <v>12</v>
-      </c>
-      <c r="AM43" s="14">
-        <v>13</v>
-      </c>
     </row>
-    <row r="44" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I44" s="5">
-        <v>344</v>
+        <v>657</v>
       </c>
       <c r="J44" s="5">
-        <v>336</v>
+        <v>534</v>
       </c>
       <c r="K44" s="5">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="L44" s="5">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M44" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44" s="5">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="O44" s="5">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="P44" s="5">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="Q44" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R44" s="5">
-        <v>29</v>
-      </c>
-      <c r="S44" s="6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1</v>
       </c>
       <c r="T44" s="5">
-        <v>29</v>
-      </c>
-      <c r="U44" s="9">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="U44" s="5">
+        <v>241</v>
       </c>
       <c r="V44" s="5">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="W44" s="5">
-        <v>8</v>
-      </c>
-      <c r="X44" s="9">
-        <v>83</v>
+        <v>119</v>
+      </c>
+      <c r="X44" s="5">
+        <v>39</v>
       </c>
       <c r="Y44" s="5">
         <v>15</v>
       </c>
       <c r="Z44" s="5">
-        <v>68</v>
-      </c>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
     </row>
-    <row r="45" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1588</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1447</v>
+      </c>
+      <c r="K45" s="5">
+        <v>141</v>
+      </c>
+      <c r="L45" s="5">
+        <v>145</v>
+      </c>
+      <c r="M45" s="5">
         <v>41</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="N45" s="5">
         <v>104</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="O45" s="11">
+        <v>1116</v>
+      </c>
+      <c r="P45" s="11">
+        <v>1116</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>38</v>
+      </c>
+      <c r="S45" s="5">
+        <v>1</v>
+      </c>
+      <c r="T45" s="5">
         <v>37</v>
       </c>
-      <c r="I45" s="5">
-        <v>336</v>
-      </c>
-      <c r="J45" s="5">
-        <v>200</v>
-      </c>
-      <c r="K45" s="5">
-        <v>136</v>
-      </c>
-      <c r="L45" s="5">
-        <v>30</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5">
-        <v>30</v>
-      </c>
-      <c r="O45" s="5">
-        <v>200</v>
-      </c>
-      <c r="P45" s="5">
-        <v>200</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5">
-        <v>26</v>
-      </c>
-      <c r="S45" s="6">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5">
-        <v>26</v>
-      </c>
       <c r="U45" s="5">
-        <v>136</v>
-      </c>
-      <c r="V45" s="11"/>
+        <v>472</v>
+      </c>
+      <c r="V45" s="5">
+        <v>331</v>
+      </c>
       <c r="W45" s="5">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="X45" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="6">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>40</v>
       </c>
       <c r="Z45" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AM45" s="4"/>
     </row>
-    <row r="46" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I46" s="5">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="J46" s="5">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K46" s="5">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="L46" s="5">
-        <v>114</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M46" s="5">
+        <v>51</v>
       </c>
       <c r="N46" s="5">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="O46" s="5">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="P46" s="5">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="Q46" s="5">
         <v>0</v>
       </c>
       <c r="R46" s="5">
-        <v>30</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="S46" s="5">
+        <v>4</v>
       </c>
       <c r="T46" s="5">
-        <v>30</v>
-      </c>
-      <c r="U46" s="9">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="U46" s="5">
+        <v>207</v>
       </c>
       <c r="V46" s="5">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="W46" s="5">
-        <v>38</v>
-      </c>
-      <c r="X46" s="9">
-        <v>84</v>
-      </c>
-      <c r="Y46" s="6">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="X46" s="5">
+        <v>92</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>47</v>
       </c>
       <c r="Z46" s="5">
-        <v>84</v>
-      </c>
-      <c r="AA46" s="7"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="14">
+        <v>12</v>
+      </c>
+      <c r="AD46" s="14">
+        <v>13</v>
+      </c>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
       <c r="AH46" s="4"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
     </row>
-    <row r="47" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="5">
-        <v>366</v>
+        <v>114</v>
+      </c>
+      <c r="I47" s="10">
+        <v>86</v>
       </c>
       <c r="J47" s="5">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="K47" s="5">
-        <v>82</v>
-      </c>
-      <c r="L47" s="5">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="L47" s="10">
+        <v>122</v>
       </c>
       <c r="M47" s="5">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N47" s="5">
-        <v>45</v>
-      </c>
-      <c r="O47" s="5">
-        <v>243</v>
+        <v>105</v>
+      </c>
+      <c r="O47" s="10">
+        <v>22</v>
       </c>
       <c r="P47" s="5">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="Q47" s="5">
         <v>0</v>
       </c>
-      <c r="R47" s="5">
-        <v>38</v>
+      <c r="R47" s="10">
+        <v>72</v>
       </c>
       <c r="S47" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" s="5">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="U47" s="5">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="V47" s="5">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="W47" s="5">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="X47" s="5">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Y47" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Z47" s="5">
-        <v>8</v>
-      </c>
-      <c r="AA47" s="7"/>
-      <c r="AB47" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>11</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>4</v>
+      </c>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
+      <c r="AE47" s="14">
+        <v>14</v>
+      </c>
+      <c r="AF47" s="14">
+        <v>15</v>
+      </c>
+      <c r="AG47" s="14">
+        <v>16</v>
+      </c>
+      <c r="AH47" s="14">
+        <v>17</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I48" s="5">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="J48" s="5">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="K48" s="5">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="L48" s="5">
-        <v>13</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="M48" s="5">
+        <v>14</v>
       </c>
       <c r="N48" s="5">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="O48" s="5">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="P48" s="5">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="5">
         <v>0</v>
       </c>
       <c r="R48" s="5">
+        <v>24</v>
+      </c>
+      <c r="S48" s="5">
         <v>4</v>
       </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
       <c r="T48" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="U48" s="5">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="V48" s="5">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="W48" s="5">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="X48" s="5">
-        <v>9</v>
-      </c>
-      <c r="Y48" s="6">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>10</v>
       </c>
       <c r="Z48" s="5">
-        <v>9</v>
-      </c>
-      <c r="AA48" s="7"/>
-      <c r="AB48" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
       <c r="AH48" s="4"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
     </row>
-    <row r="49" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1088</v>
+      </c>
+      <c r="J49" s="5">
+        <v>943</v>
+      </c>
+      <c r="K49" s="5">
+        <v>145</v>
+      </c>
+      <c r="L49" s="5">
+        <v>141</v>
+      </c>
+      <c r="M49" s="5">
+        <v>6</v>
+      </c>
+      <c r="N49" s="5">
+        <v>135</v>
+      </c>
+      <c r="O49" s="5">
+        <v>902</v>
+      </c>
+      <c r="P49" s="5">
+        <v>902</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5">
+        <v>91</v>
+      </c>
+      <c r="S49" s="5">
+        <v>6</v>
+      </c>
+      <c r="T49" s="5">
+        <v>85</v>
+      </c>
+      <c r="U49" s="5">
+        <v>186</v>
+      </c>
+      <c r="V49" s="5">
         <v>41</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="5">
-        <v>466</v>
-      </c>
-      <c r="J49" s="5">
-        <v>428</v>
-      </c>
-      <c r="K49" s="5">
-        <v>38</v>
-      </c>
-      <c r="L49" s="5">
-        <v>15</v>
-      </c>
-      <c r="M49" s="5">
-        <v>7</v>
-      </c>
-      <c r="N49" s="5">
-        <v>8</v>
-      </c>
-      <c r="O49" s="5">
-        <v>428</v>
-      </c>
-      <c r="P49" s="5">
-        <v>428</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>0</v>
-      </c>
-      <c r="R49" s="5">
-        <v>7</v>
-      </c>
-      <c r="S49" s="5">
-        <v>7</v>
-      </c>
-      <c r="T49" s="5">
-        <v>0</v>
-      </c>
-      <c r="U49" s="5">
-        <v>38</v>
-      </c>
-      <c r="V49" s="11"/>
       <c r="W49" s="5">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="X49" s="5">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="5">
-        <v>8</v>
-      </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
       <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
     </row>
-    <row r="50" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="5">
+        <v>671</v>
+      </c>
+      <c r="J50" s="5">
+        <v>543</v>
+      </c>
+      <c r="K50" s="5">
+        <v>128</v>
+      </c>
+      <c r="L50" s="5">
+        <v>97</v>
+      </c>
+      <c r="M50" s="5">
+        <v>1</v>
+      </c>
+      <c r="N50" s="5">
+        <v>96</v>
+      </c>
+      <c r="O50" s="5">
+        <v>502</v>
+      </c>
+      <c r="P50" s="5">
+        <v>502</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5">
+        <v>64</v>
+      </c>
+      <c r="S50" s="5">
+        <v>1</v>
+      </c>
+      <c r="T50" s="5">
+        <v>63</v>
+      </c>
+      <c r="U50" s="5">
+        <v>169</v>
+      </c>
+      <c r="V50" s="5">
         <v>41</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="5">
-        <v>267</v>
-      </c>
-      <c r="J50" s="5">
-        <v>257</v>
-      </c>
-      <c r="K50" s="5">
-        <v>10</v>
-      </c>
-      <c r="L50" s="5">
-        <v>43</v>
-      </c>
-      <c r="M50" s="5">
-        <v>20</v>
-      </c>
-      <c r="N50" s="5">
-        <v>23</v>
-      </c>
-      <c r="O50" s="9">
-        <v>1</v>
-      </c>
-      <c r="P50" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9">
-        <v>15</v>
-      </c>
-      <c r="S50" s="5">
-        <v>14</v>
-      </c>
-      <c r="T50" s="5">
-        <v>1</v>
-      </c>
-      <c r="U50" s="5">
-        <v>266</v>
-      </c>
-      <c r="V50" s="5">
-        <v>256</v>
-      </c>
       <c r="W50" s="5">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="X50" s="5">
-        <v>28</v>
-      </c>
-      <c r="Y50" s="5">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0</v>
       </c>
       <c r="Z50" s="5">
-        <v>22</v>
-      </c>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
       <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
     </row>
-    <row r="51" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="5">
+        <v>225</v>
+      </c>
+      <c r="J51" s="5">
+        <v>151</v>
+      </c>
+      <c r="K51" s="5">
         <v>74</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="5">
-        <v>436</v>
-      </c>
-      <c r="J51" s="5">
-        <v>400</v>
-      </c>
-      <c r="K51" s="5">
-        <v>36</v>
-      </c>
       <c r="L51" s="5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M51" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N51" s="5">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="O51" s="5">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="P51" s="5">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="Q51" s="5">
         <v>0</v>
       </c>
       <c r="R51" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S51" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="T51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="5">
-        <v>239</v>
-      </c>
-      <c r="V51" s="5">
-        <v>203</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="V51" s="7"/>
       <c r="W51" s="5">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X51" s="5">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <v>14</v>
-      </c>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
       <c r="AH51" s="4"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
     </row>
-    <row r="52" spans="1:39" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I52" s="5">
-        <v>622</v>
+        <v>109</v>
       </c>
       <c r="J52" s="5">
-        <v>591</v>
+        <v>38</v>
       </c>
       <c r="K52" s="5">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="L52" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M52" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N52" s="5">
+        <v>12</v>
+      </c>
+      <c r="O52" s="5">
+        <v>34</v>
+      </c>
+      <c r="P52" s="5">
+        <v>34</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6">
+        <v>0</v>
+      </c>
+      <c r="T52" s="5">
+        <v>0</v>
+      </c>
+      <c r="U52" s="5">
+        <v>75</v>
+      </c>
+      <c r="V52" s="5">
         <v>4</v>
       </c>
-      <c r="O52" s="5">
-        <v>403</v>
-      </c>
-      <c r="P52" s="5">
-        <v>403</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5">
-        <v>1</v>
-      </c>
-      <c r="S52" s="5">
-        <v>1</v>
-      </c>
-      <c r="T52" s="5">
-        <v>0</v>
-      </c>
-      <c r="U52" s="5">
-        <v>219</v>
-      </c>
-      <c r="V52" s="5">
-        <v>188</v>
-      </c>
       <c r="W52" s="5">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="X52" s="5">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="6">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>6</v>
       </c>
       <c r="Z52" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
+    </row>
+    <row r="53" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="5">
+        <v>494</v>
+      </c>
+      <c r="J53" s="5">
+        <v>409</v>
+      </c>
+      <c r="K53" s="5">
+        <v>85</v>
+      </c>
+      <c r="L53" s="5">
+        <v>8</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>8</v>
+      </c>
+      <c r="O53" s="5">
+        <v>409</v>
+      </c>
+      <c r="P53" s="5">
+        <v>409</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6">
+        <v>0</v>
+      </c>
+      <c r="T53" s="5">
+        <v>0</v>
+      </c>
+      <c r="U53" s="5">
+        <v>85</v>
+      </c>
+      <c r="V53" s="7"/>
+      <c r="W53" s="5">
+        <v>85</v>
+      </c>
+      <c r="X53" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>8</v>
+      </c>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+    </row>
+    <row r="54" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="5">
+        <v>750</v>
+      </c>
+      <c r="J54" s="5">
+        <v>667</v>
+      </c>
+      <c r="K54" s="5">
+        <v>83</v>
+      </c>
+      <c r="L54" s="5">
+        <v>37</v>
+      </c>
+      <c r="M54" s="5">
+        <v>21</v>
+      </c>
+      <c r="N54" s="5">
+        <v>16</v>
+      </c>
+      <c r="O54" s="5">
+        <v>358</v>
+      </c>
+      <c r="P54" s="5">
+        <v>358</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5">
+        <v>7</v>
+      </c>
+      <c r="S54" s="5">
+        <v>7</v>
+      </c>
+      <c r="T54" s="5">
+        <v>0</v>
+      </c>
+      <c r="U54" s="5">
+        <v>392</v>
+      </c>
+      <c r="V54" s="5">
+        <v>309</v>
+      </c>
+      <c r="W54" s="5">
+        <v>83</v>
+      </c>
+      <c r="X54" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>14</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>16</v>
+      </c>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+    </row>
+    <row r="55" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="5">
+        <v>437</v>
+      </c>
+      <c r="J55" s="5">
+        <v>345</v>
+      </c>
+      <c r="K55" s="5">
+        <v>92</v>
+      </c>
+      <c r="L55" s="5">
+        <v>32</v>
+      </c>
+      <c r="M55" s="5">
+        <v>12</v>
+      </c>
+      <c r="N55" s="5">
+        <v>20</v>
+      </c>
+      <c r="O55" s="5">
+        <v>143</v>
+      </c>
+      <c r="P55" s="5">
+        <v>143</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5">
+        <v>14</v>
+      </c>
+      <c r="S55" s="5">
+        <v>11</v>
+      </c>
+      <c r="T55" s="5">
+        <v>3</v>
+      </c>
+      <c r="U55" s="5">
+        <v>294</v>
+      </c>
+      <c r="V55" s="5">
+        <v>202</v>
+      </c>
+      <c r="W55" s="5">
+        <v>92</v>
+      </c>
+      <c r="X55" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>17</v>
+      </c>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+    </row>
+    <row r="56" spans="1:34" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="5">
+        <v>618</v>
+      </c>
+      <c r="J56" s="5">
+        <v>589</v>
+      </c>
+      <c r="K56" s="5">
+        <v>29</v>
+      </c>
+      <c r="L56" s="5">
+        <v>5</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>5</v>
+      </c>
+      <c r="O56" s="5">
+        <v>401</v>
+      </c>
+      <c r="P56" s="5">
+        <v>401</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5">
+        <v>2</v>
+      </c>
+      <c r="S56" s="6">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
+        <v>2</v>
+      </c>
+      <c r="U56" s="5">
+        <v>217</v>
+      </c>
+      <c r="V56" s="5">
+        <v>188</v>
+      </c>
+      <c r="W56" s="5">
+        <v>29</v>
+      </c>
+      <c r="X56" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="AM2:AM3"/>
+  <mergeCells count="26">
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
